--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,666 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GS2308230004J001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>238N0004</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>APPA2023082300012</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GS2308230004J002</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>238N0004</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>APPA2023082300012</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GS2308230004J003</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>238N0004</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>APPA2023082300012</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GS2308230004J004</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>238N0004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>APPA2023082300012</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>AP2308230013</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-31</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>AP2308230008</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-24</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>AP2308230009</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-27</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AP2308230010</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-29</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>AP2308230003</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>AP2308230007</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-21</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AP2308230012</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-30</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AP2308230014</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-6</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AP2308230015</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AP2308230004</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-12</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AP2308230005</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-15</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AP2308230006</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-18</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AP2308230011</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>KA238N0003-J022-APP-A-3</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>APPA2023082300011</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>AP2308230020</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>KA238N0005-J022-APP-A-1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>APPA2023082300013</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>AP2308230021</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>KA238N0005-J022-APP-A-2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>APPA2023082300013</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>AP2308230022</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>KA238N0005-J022-APP-A-3</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>APPA2023082300013</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AP2308230023</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>KA238N0005-J022-APP-A-4</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>APPA2023082300013</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AP2308230026</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>KA238N0006-J022-APP-A-5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>APPA2023082300015</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AP2308230024</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>KA238N0006-J022-APP-A-1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>APPA2023082300015</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AP2308230025</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>KA238N0006-J022-APP-A-3</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>APPA2023082300015</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AP2308230027</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>KA238N0006-J022-APP-A-6</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>APPA2023082300015</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AP2308230028</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>KA238N0006-J022-APP-A-7</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>APPA2023082300015</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AP2308230029</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>KA238N0007-J022-APP-A-1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>APPA2023082300016</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AP2308230030</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>KA238N0007-J022-APP-A-2</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>APPA2023082300016</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>AP2308230031</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>KA238N0007-J022-APP-A-3</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>APPA2023082300016</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AP2308230032</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>KA238N0007-J022-APP-A-4</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>APPA2023082300016</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -1,90 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\工作文件夹\自动化文档\正式脚本\世和LIMS脚本\LIMS_UI_TEST\data\excel_doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F8BF9D-9954-49DB-802C-E22964316C60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="29940" yWindow="8580" windowWidth="22890" windowHeight="9855" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>文库名称</t>
-  </si>
-  <si>
-    <t>当前节点</t>
-  </si>
-  <si>
-    <t>任务单号</t>
-  </si>
-  <si>
-    <t>华大文库定量</t>
-  </si>
-  <si>
-    <t>APPA2023082300011</t>
-  </si>
-  <si>
-    <t>lims号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AP2308180004</t>
-  </si>
-  <si>
-    <t>KA237L0003-L000J006-APP-A-12</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF606266"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -99,25 +46,81 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -405,49 +408,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="33.75" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>5</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>lims号</t>
+        </is>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>文库名称</t>
+        </is>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>当前节点</t>
+        </is>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>任务单号</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,94 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AP2309080001</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KA23970036-J022-APP-A-1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>APPA2023090800001</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AP2309080004</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KA23970036-J022-APP-A-4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>APPA2023090800001</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AP2309080002</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KA23970036-J022-APP-A-2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>APPA2023090800001</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP2309080003</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>KA23970036-J022-APP-A-3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>APPA2023090800001</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,94 +443,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>AP2309080001</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>KA23970036-J022-APP-A-1</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华大文库定量</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>APPA2023090800001</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>AP2309080004</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>KA23970036-J022-APP-A-4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华大文库定量</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>APPA2023090800001</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>AP2309080002</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>KA23970036-J022-APP-A-2</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华大文库定量</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>APPA2023090800001</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>AP2309080003</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>KA23970036-J022-APP-A-3</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华大文库定量</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>APPA2023090800001</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,6 +443,94 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>AP2309080014</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>KA23980098-J022-APP-A-1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>APPA2023090800004</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>AP2309080015</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>KA23980098-J022-APP-A-2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>APPA2023090800004</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>AP2309080016</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KA23980098-J022-APP-A-3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>APPA2023090800004</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>AP2309080017</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>KA23980098-J022-APP-A-4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华大文库定量</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>APPA2023090800004</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP2309080014</t>
+          <t>AP2309110001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA23980098-J022-APP-A-1</t>
+          <t>KA239A0007-J022-APP-A-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APPA2023090800004</t>
+          <t>APPA2023091100001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP2309080015</t>
+          <t>AP2309110002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KA23980098-J022-APP-A-2</t>
+          <t>KA239A0007-J022-APP-A-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPA2023090800004</t>
+          <t>APPA2023091100001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP2309080016</t>
+          <t>AP2309110003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KA23980098-J022-APP-A-3</t>
+          <t>KA239A0007-J022-APP-A-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPA2023090800004</t>
+          <t>APPA2023091100001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP2309080017</t>
+          <t>AP2309110004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KA23980098-J022-APP-A-4</t>
+          <t>KA239A0007-J022-APP-A-4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APPA2023090800004</t>
+          <t>APPA2023091100001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP2309110001</t>
+          <t>AP2309120006</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA239A0007-J022-APP-A-1</t>
+          <t>KA239B0063-J022-APP-A-2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APPA2023091100001</t>
+          <t>APPA2023091200002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP2309110002</t>
+          <t>AP2309120007</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KA239A0007-J022-APP-A-2</t>
+          <t>KA239B0063-J022-APP-A-3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPA2023091100001</t>
+          <t>APPA2023091200002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP2309110003</t>
+          <t>AP2309120008</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KA239A0007-J022-APP-A-3</t>
+          <t>KA239B0063-J022-APP-A-4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPA2023091100001</t>
+          <t>APPA2023091200002</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP2309110004</t>
+          <t>AP2309120005</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KA239A0007-J022-APP-A-4</t>
+          <t>KA239B0063-J022-APP-A-1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APPA2023091100001</t>
+          <t>APPA2023091200002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP2309120006</t>
+          <t>AP2309150001</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA239B0063-J022-APP-A-2</t>
+          <t>KA239E0040-J022-APP-A-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APPA2023091200002</t>
+          <t>APPA2023091500002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP2309120007</t>
+          <t>AP2309150002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KA239B0063-J022-APP-A-3</t>
+          <t>KA239E0040-J022-APP-A-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPA2023091200002</t>
+          <t>APPA2023091500002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP2309120008</t>
+          <t>AP2309150003</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KA239B0063-J022-APP-A-4</t>
+          <t>KA239E0040-J022-APP-A-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPA2023091200002</t>
+          <t>APPA2023091500002</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP2309120005</t>
+          <t>AP2309150004</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KA239B0063-J022-APP-A-1</t>
+          <t>KA239E0040-J022-APP-A-4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APPA2023091200002</t>
+          <t>APPA2023091500002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP2309150001</t>
+          <t>AP2309180004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA239E0040-J022-APP-A-1</t>
+          <t>KA239H0008-J022-APP-A-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APPA2023091500002</t>
+          <t>APPA2023091800002</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP2309150002</t>
+          <t>AP2309180005</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KA239E0040-J022-APP-A-2</t>
+          <t>KA239H0008-J022-APP-A-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPA2023091500002</t>
+          <t>APPA2023091800002</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP2309150003</t>
+          <t>AP2309180006</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KA239E0040-J022-APP-A-3</t>
+          <t>KA239H0008-J022-APP-A-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPA2023091500002</t>
+          <t>APPA2023091800002</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP2309150004</t>
+          <t>AP2309180007</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KA239E0040-J022-APP-A-4</t>
+          <t>KA239H0008-J022-APP-A-4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APPA2023091500002</t>
+          <t>APPA2023091800002</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP2309180004</t>
+          <t>AP2401150003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA239H0008-J022-APP-A-1</t>
+          <t>KA241E0011-J022-APP-A-3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APPA2023091800002</t>
+          <t>APPA2024011500001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP2309180005</t>
+          <t>AP2401150004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KA239H0008-J022-APP-A-2</t>
+          <t>KA241E0011-J022-APP-A-4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPA2023091800002</t>
+          <t>APPA2024011500001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP2309180006</t>
+          <t>AP2401150002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KA239H0008-J022-APP-A-3</t>
+          <t>KA241E0011-J022-APP-A-2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPA2023091800002</t>
+          <t>APPA2024011500001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP2309180007</t>
+          <t>AP2401150001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KA239H0008-J022-APP-A-4</t>
+          <t>KA241E0011-J022-APP-A-1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APPA2023091800002</t>
+          <t>APPA2024011500001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP2401150003</t>
+          <t>AP2310270021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA241E0011-J022-APP-A-3</t>
+          <t>KA230S0050-J022-APP-A-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APPA2024011500001</t>
+          <t>APPA2023102700006</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP2401150004</t>
+          <t>AP2310270023</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KA241E0011-J022-APP-A-4</t>
+          <t>KA230S0050-J022-APP-A-3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPA2024011500001</t>
+          <t>APPA2023102700006</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP2401150002</t>
+          <t>AP2310270024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KA241E0011-J022-APP-A-2</t>
+          <t>KA230S0050-J022-APP-A-4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPA2024011500001</t>
+          <t>APPA2023102700006</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP2401150001</t>
+          <t>AP2310270022</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KA241E0011-J022-APP-A-1</t>
+          <t>KA230S0050-J022-APP-A-2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APPA2024011500001</t>
+          <t>APPA2023102700006</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP2310270021</t>
+          <t>AP2401160004</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA230S0050-J022-APP-A-1</t>
+          <t>KA241F0013-J022-APP-A-4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APPA2023102700006</t>
+          <t>APPA2024011600001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP2310270023</t>
+          <t>AP2401160001</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KA230S0050-J022-APP-A-3</t>
+          <t>KA241F0013-J022-APP-A-1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPA2023102700006</t>
+          <t>APPA2024011600001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP2310270024</t>
+          <t>AP2401160002</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KA230S0050-J022-APP-A-4</t>
+          <t>KA241F0013-J022-APP-A-2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPA2023102700006</t>
+          <t>APPA2024011600001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP2310270022</t>
+          <t>AP2401160003</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KA230S0050-J022-APP-A-2</t>
+          <t>KA241F0013-J022-APP-A-3</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APPA2023102700006</t>
+          <t>APPA2024011600001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP2401160004</t>
+          <t>AP2404290052</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA241F0013-J022-APP-A-4</t>
+          <t>KA244U0631-J022-APP-A-1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APPA2024011600001</t>
+          <t>APPA2024042900001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP2401160001</t>
+          <t>AP2404290053</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KA241F0013-J022-APP-A-1</t>
+          <t>KA244U0631-J022-APP-A-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPA2024011600001</t>
+          <t>APPA2024042900001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP2401160002</t>
+          <t>AP2404290050</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KA241F0013-J022-APP-A-2</t>
+          <t>KA244U0631--APP-A-3</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPA2024011600001</t>
+          <t>APPA2024042900001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP2401160003</t>
+          <t>AP2404290051</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KA241F0013-J022-APP-A-3</t>
+          <t>KA244U0631--APP-A-4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APPA2024011600001</t>
+          <t>APPA2024042900001</t>
         </is>
       </c>
     </row>

--- a/data/excel_doc/wkdl_sr_huada_lims.xlsx
+++ b/data/excel_doc/wkdl_sr_huada_lims.xlsx
@@ -446,12 +446,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AP2404290052</t>
+          <t>AP2405210003</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>KA244U0631-J022-APP-A-1</t>
+          <t>KA245L0051-J022-APP-A-3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -461,19 +461,19 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>APPA2024042900001</t>
+          <t>APPA2024052100001</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AP2404290053</t>
+          <t>AP2405210004</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>KA244U0631-J022-APP-A-2</t>
+          <t>KA245L0051-J022-APP-A-4</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -483,19 +483,19 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>APPA2024042900001</t>
+          <t>APPA2024052100001</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>AP2404290050</t>
+          <t>AP2405210001</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>KA244U0631--APP-A-3</t>
+          <t>KA245L0051-J022-APP-A-1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -505,19 +505,19 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>APPA2024042900001</t>
+          <t>APPA2024052100001</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AP2404290051</t>
+          <t>AP2405210002</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>KA244U0631--APP-A-4</t>
+          <t>KA245L0051-J022-APP-A-2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>APPA2024042900001</t>
+          <t>APPA2024052100001</t>
         </is>
       </c>
     </row>
